--- a/Software/Workday.xlsx
+++ b/Software/Workday.xlsx
@@ -5,35 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598B0456-B92C-534E-B55B-80F9428C8589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196E5546-89FD-174E-BAD7-992384A1DAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$3:$P$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$P$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$P$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$P$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$B$106:$P$106</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$19:$P$19</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">'Sheet 1'!$B$106:$P$106</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">'Sheet 1'!$B$19:$P$19</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">'Sheet 1'!$B$3:$P$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -334,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Workday</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -541,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -941,18 +957,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -975,12 +979,6 @@
     <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -991,11 +989,6 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1017,10 +1010,33 @@
     <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2187,6 +2203,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a25rkr&amp;q=XNAS%3aWDAY&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>WORKDAY, INC. (XNAS:WDAY)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a25rkr</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>235.16</v>
+    <v>128.72</v>
+    <v>1.2787999999999999</v>
+    <v>-1.06</v>
+    <v>-5.3569999999999998E-3</v>
+    <v>-0.06</v>
+    <v>-3.0489999999999998E-4</v>
+    <v>USD</v>
+    <v>Workday, Inc. is a provider of enterprise cloud applications for finance and human resources. The Company provides approximately 10,000 organizations with software-as-a-service solutions to help solve business challenges, including supporting and empowering their workforce, managing their finances and spending in an ever-changing environment, and planning for the unexpected. The Company provides organizations with a unified system that can help them plan, execute, analyze, and extend to other applications and environments, thereby helping them continuously adapt how they manage their business and operations. It embeds artificial intelligence (AI) and machine learning (ML) into its platform, enabling its applications to natively leverage AI and ML as part of the workflow. The Company sells its solutions worldwide primarily through direct sales. The Company also offers professional services, both directly and through its Workday Services Partners to help customers deploy its solutions.</v>
+    <v>17700</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>6110 Stoneridge Mall Road, PLEASANTON, CA, 94588 US</v>
+    <v>197.45</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45022.996105647653</v>
+    <v>0</v>
+    <v>188.64</v>
+    <v>50973790000</v>
+    <v>WORKDAY, INC.</v>
+    <v>WORKDAY, INC.</v>
+    <v>194.95</v>
+    <v>1693.5239999999999</v>
+    <v>197.87</v>
+    <v>196.81</v>
+    <v>196.75</v>
+    <v>259000000</v>
+    <v>WDAY</v>
+    <v>WORKDAY, INC. (XNAS:WDAY)</v>
+    <v>2373899</v>
+    <v>1989298</v>
+    <v>2012</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2487,10 +2943,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z110" sqref="Z110"/>
+      <selection pane="bottomRight" activeCell="R115" sqref="R115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2501,8 +2957,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2009</v>
@@ -2693,21 +3149,21 @@
         <v>14353000000</v>
       </c>
       <c r="V3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="W3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="X3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="Y3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2723,7 +3179,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AA4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:U4" si="0">(F3/E3)-1</f>
         <v>1.03572942935571</v>
       </c>
       <c r="G4" s="15">
@@ -2912,16 +3368,16 @@
         <v>4500640000</v>
       </c>
       <c r="V6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="W6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="W6" s="19" t="s">
+      <c r="X6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="Y6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3042,14 +3498,14 @@
     </row>
     <row r="9" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
         <v>1.190136660724896</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:V9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:P9" si="1">C8/C3</f>
         <v>0.57563735214165013</v>
       </c>
       <c r="D9" s="15" t="e">
@@ -3109,16 +3565,16 @@
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="V9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="W9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="X9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="X9" s="19" t="s">
+      <c r="Y9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="Y9" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
@@ -3292,28 +3748,28 @@
         <v>2452180000</v>
       </c>
       <c r="V12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="W12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="W12" s="19" t="s">
+      <c r="X12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="X12" s="19" t="s">
+      <c r="Y12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="Y12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
         <v>1.0334719746484453</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:V13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:P13" si="2">C12/C3</f>
         <v>0.66236132539857473</v>
       </c>
       <c r="D13" s="15" t="e">
@@ -3494,16 +3950,16 @@
         <v>4722840000</v>
       </c>
       <c r="V15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="W15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="W15" s="19" t="s">
+      <c r="X15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="X15" s="19" t="s">
+      <c r="Y15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="Y15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3561,15 +4017,15 @@
       </c>
       <c r="W16" s="30">
         <f>X101/P3</f>
-        <v>7.817793780319823</v>
+        <v>8.2006567759866851</v>
       </c>
       <c r="X16" s="30">
         <f>X101/P28</f>
-        <v>-132.49929324960667</v>
+        <v>-138.98821810011751</v>
       </c>
       <c r="Y16" s="31">
         <f>X101/P106</f>
-        <v>37.447883046415697</v>
+        <v>39.28182866936438</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -3672,7 +4128,7 @@
         <v>364357000</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -3731,7 +4187,7 @@
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3747,7 +4203,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:V20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:P20" si="3">(F19/E19)-1</f>
         <v>0.4455014674628075</v>
       </c>
       <c r="G20" s="15">
@@ -4209,7 +4665,7 @@
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4225,7 +4681,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:V29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:P29" si="4">(F28/E28)-1</f>
         <v>0.49681648645593945</v>
       </c>
       <c r="G29" s="15">
@@ -4537,7 +4993,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -4545,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="22" t="e">
-        <f t="shared" ref="D35:V35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:P35" si="5">(D34-C34)/C34</f>
         <v>#VALUE!</v>
       </c>
       <c r="E35" s="22" t="e">
@@ -6813,10 +7269,10 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:V80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:P80" si="6">B79/B3</f>
         <v>6.741929094870272E-2</v>
       </c>
       <c r="C80" s="15" t="e">
@@ -7039,10 +7495,10 @@
       <c r="P83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W83" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="X83" s="34"/>
+      <c r="W83" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="X83" s="63"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7093,10 +7549,10 @@
       <c r="P84" s="1">
         <v>85773000</v>
       </c>
-      <c r="W84" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="X84" s="36"/>
+      <c r="W84" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="X84" s="65"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7147,10 +7603,10 @@
       <c r="P85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W85" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="X85" s="60">
+      <c r="W85" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="X85" s="51">
         <f>P17</f>
         <v>102000000</v>
       </c>
@@ -7204,10 +7660,10 @@
       <c r="P86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W86" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="X86" s="60">
+      <c r="W86" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="X86" s="51">
         <f>P56</f>
         <v>91343000</v>
       </c>
@@ -7261,10 +7717,10 @@
       <c r="P87" s="10">
         <v>1657195000</v>
       </c>
-      <c r="W87" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="X87" s="60">
+      <c r="W87" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="X87" s="51">
         <f>P61</f>
         <v>3157733000</v>
       </c>
@@ -7318,20 +7774,20 @@
       <c r="P88" s="1">
         <v>0</v>
       </c>
-      <c r="W88" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="X88" s="62">
+      <c r="W88" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="X88" s="53">
         <f>X85/(X86+X87)</f>
         <v>3.1393540809756371E-2</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:V89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:P89" si="7">(-1*B88)/B3</f>
         <v>0.1450584274113686</v>
       </c>
       <c r="C89" s="15">
@@ -7390,10 +7846,10 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W89" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="X89" s="60">
+      <c r="W89" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="X89" s="51">
         <f>P27</f>
         <v>106799000</v>
       </c>
@@ -7404,7 +7860,7 @@
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
       <c r="AS89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AT89" s="24">
         <f>AL27</f>
@@ -7460,10 +7916,10 @@
       <c r="P90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W90" s="59" t="s">
+      <c r="W90" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="X90" s="60">
+      <c r="X90" s="51">
         <f>P25</f>
         <v>-259950000</v>
       </c>
@@ -7517,10 +7973,10 @@
       <c r="P91" s="1">
         <v>-7206134000</v>
       </c>
-      <c r="W91" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="X91" s="62">
+      <c r="W91" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="X91" s="53">
         <f>X89/X90</f>
         <v>-0.41084439315252935</v>
       </c>
@@ -7574,10 +8030,10 @@
       <c r="P92" s="1">
         <v>5064696000</v>
       </c>
-      <c r="W92" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="X92" s="64">
+      <c r="W92" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="X92" s="55">
         <f>X88*(1-X91)</f>
         <v>4.4291401032649891E-2</v>
       </c>
@@ -7631,10 +8087,10 @@
       <c r="P93" s="1">
         <v>-364488000</v>
       </c>
-      <c r="W93" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="X93" s="36"/>
+      <c r="W93" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="X93" s="65"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7685,10 +8141,10 @@
       <c r="P94" s="10">
         <v>-2505926000</v>
       </c>
-      <c r="W94" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="X94" s="65">
+      <c r="W94" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="X94" s="56">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7741,11 +8197,12 @@
       <c r="P95" s="1">
         <v>-1850825000</v>
       </c>
-      <c r="W95" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="X95" s="68">
-        <v>1.26</v>
+      <c r="W95" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="X95" s="58" cm="1">
+        <f t="array" ref="X95">_FV(A1,"Beta")</f>
+        <v>1.2787999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -7797,10 +8254,10 @@
       <c r="P96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W96" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="X96" s="65">
+      <c r="W96" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="X96" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7853,12 +8310,12 @@
       <c r="P97" s="1">
         <v>-74666000</v>
       </c>
-      <c r="W97" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="X97" s="64">
+      <c r="W97" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="X97" s="55">
         <f>(X94)+((X95)*(X96-X94))</f>
-        <v>9.5193E-2</v>
+        <v>9.6002340000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -7910,10 +8367,10 @@
       <c r="P98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W98" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="X98" s="36"/>
+      <c r="W98" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="X98" s="65"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7964,10 +8421,10 @@
       <c r="P99" s="1">
         <v>3129312000</v>
       </c>
-      <c r="W99" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="X99" s="60">
+      <c r="W99" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="X99" s="51">
         <f>X86+X87</f>
         <v>3249076000</v>
       </c>
@@ -8021,12 +8478,12 @@
       <c r="P100" s="10">
         <v>1203821000</v>
       </c>
-      <c r="W100" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="X100" s="62">
+      <c r="W100" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="X100" s="53">
         <f>X99/X103</f>
-        <v>6.2671378654538618E-2</v>
+        <v>5.9920772170176322E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8078,12 +8535,12 @@
       <c r="P101" s="1">
         <v>-595000</v>
       </c>
-      <c r="W101" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="X101" s="50">
-        <f>R116*P34</f>
-        <v>48593983300</v>
+      <c r="W101" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="X101" s="44" cm="1">
+        <f t="array" ref="X101">_FV(A1,"Market cap",TRUE)</f>
+        <v>50973790000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8135,12 +8592,12 @@
       <c r="P102" s="10">
         <v>354495000</v>
       </c>
-      <c r="W102" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="X102" s="62">
+      <c r="W102" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="X102" s="53">
         <f>X101/X103</f>
-        <v>0.93732862134546135</v>
+        <v>0.94007922782982367</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8192,12 +8649,12 @@
       <c r="P103" s="1">
         <v>1540745000</v>
       </c>
-      <c r="W103" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="X103" s="66">
+      <c r="W103" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="X103" s="57">
         <f>X99+X101</f>
-        <v>51843059300</v>
+        <v>54222866000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8249,14 +8706,14 @@
       <c r="P104" s="11">
         <v>1895240000</v>
       </c>
-      <c r="W104" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="X104" s="36"/>
+      <c r="W104" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="X104" s="67"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15">
@@ -8280,7 +8737,7 @@
         <v>5.2899231426131514</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:V105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:P105" si="8">(H106/G106)-1</f>
         <v>-0.9442332496096667</v>
       </c>
       <c r="I105" s="15">
@@ -8322,11 +8779,11 @@
       <c r="U105" s="15"/>
       <c r="V105" s="15"/>
       <c r="W105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X105" s="26">
         <f>(X100*X92)+(X102*X97)</f>
-        <v>9.2002926616995717E-2</v>
+        <v>9.2903780607431527E-2</v>
       </c>
       <c r="Y105" s="15"/>
       <c r="AH105" s="15"/>
@@ -8341,7 +8798,7 @@
       <c r="AQ105" s="15"/>
       <c r="AR105" s="15"/>
       <c r="AS105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
@@ -8397,33 +8854,33 @@
       <c r="P106" s="1">
         <v>1297643000</v>
       </c>
-      <c r="Q106" s="37">
+      <c r="Q106" s="33">
         <f>P106*(1+$X$106)</f>
         <v>1534188865.4100413</v>
       </c>
-      <c r="R106" s="37">
+      <c r="R106" s="33">
         <f t="shared" ref="R106:U106" si="9">Q106*(1+$X$106)</f>
         <v>1813854407.3741004</v>
       </c>
-      <c r="S106" s="37">
+      <c r="S106" s="33">
         <f t="shared" si="9"/>
         <v>2144499862.6496456</v>
       </c>
-      <c r="T106" s="37">
+      <c r="T106" s="33">
         <f t="shared" si="9"/>
         <v>2535418301.6056414</v>
       </c>
-      <c r="U106" s="37">
+      <c r="U106" s="33">
         <f t="shared" si="9"/>
         <v>2997596817.830646</v>
       </c>
-      <c r="V106" s="38" t="s">
+      <c r="V106" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="W106" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="W106" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="X106" s="40">
+      <c r="X106" s="36">
         <f>(SUM(Q4:U4)/5)</f>
         <v>0.18228886173627218</v>
       </c>
@@ -8445,150 +8902,151 @@
       <c r="N107" s="13"/>
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
-      <c r="Q107" s="38"/>
-      <c r="R107" s="38"/>
-      <c r="S107" s="38"/>
-      <c r="T107" s="38"/>
-      <c r="U107" s="41">
+      <c r="Q107" s="34"/>
+      <c r="R107" s="34"/>
+      <c r="S107" s="34"/>
+      <c r="T107" s="34"/>
+      <c r="U107" s="37">
         <f>U106*(1+X107)/(X108-X107)</f>
-        <v>45856754225.673531</v>
-      </c>
-      <c r="V107" s="42" t="s">
+        <v>45248389865.646858</v>
+      </c>
+      <c r="V107" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="W107" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="W107" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="X107" s="44">
+      <c r="X107" s="40">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q108" s="41">
+      <c r="Q108" s="37">
         <f t="shared" ref="Q108:S108" si="10">Q107+Q106</f>
         <v>1534188865.4100413</v>
       </c>
-      <c r="R108" s="41">
+      <c r="R108" s="37">
         <f t="shared" si="10"/>
         <v>1813854407.3741004</v>
       </c>
-      <c r="S108" s="41">
+      <c r="S108" s="37">
         <f t="shared" si="10"/>
         <v>2144499862.6496456</v>
       </c>
-      <c r="T108" s="41">
+      <c r="T108" s="37">
         <f>T107+T106</f>
         <v>2535418301.6056414</v>
       </c>
-      <c r="U108" s="41">
+      <c r="U108" s="37">
         <f>U107+U106</f>
-        <v>48854351043.504173</v>
-      </c>
-      <c r="V108" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="W108" s="45" t="s">
+        <v>48245986683.477501</v>
+      </c>
+      <c r="V108" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="W108" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="X108" s="42">
+        <f>X105</f>
+        <v>9.2903780607431527E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="X108" s="46">
-        <f>X105</f>
-        <v>9.2002926616995717E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="Q109" s="47" t="s">
+      <c r="R109" s="61"/>
+    </row>
+    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q110" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="R109" s="48"/>
-    </row>
-    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q110" s="49" t="s">
+      <c r="R110" s="44">
+        <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
+        <v>37284506201.79612</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q111" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="R110" s="50">
-        <f>NPV(X108,Q108,R108,S108,T108,U108)</f>
-        <v>37817734168.029457</v>
-      </c>
-    </row>
-    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q111" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="R111" s="50">
+      <c r="R111" s="44">
         <f>P40</f>
         <v>6121394000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q112" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="R112" s="50">
+      <c r="Q112" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="R112" s="44">
         <f>X99</f>
         <v>3249076000</v>
       </c>
     </row>
     <row r="113" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q113" s="49" t="s">
+      <c r="Q113" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="R113" s="44">
+        <f>R110+R111-R112</f>
+        <v>40156824201.79612</v>
+      </c>
+    </row>
+    <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q114" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="R113" s="50">
-        <f>R110+R111-R112</f>
-        <v>40690052168.029457</v>
-      </c>
-    </row>
-    <row r="114" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q114" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="R114" s="51">
+      <c r="R114" s="45">
         <f>P34*(1+(5*V16))</f>
         <v>308205198.89277625</v>
       </c>
     </row>
     <row r="115" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q115" s="52" t="s">
+      <c r="Q115" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="R115" s="68">
+        <f>R113/R114</f>
+        <v>130.29249456550073</v>
+      </c>
+    </row>
+    <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q116" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="R115" s="53">
-        <f>R113/R114</f>
-        <v>132.02260154665794</v>
-      </c>
-    </row>
-    <row r="116" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q116" s="54" t="s">
+      <c r="R116" s="59" cm="1">
+        <f t="array" ref="R116">_FV(A1,"Price")</f>
+        <v>196.81</v>
+      </c>
+    </row>
+    <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q117" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="R116" s="55">
-        <v>190.7</v>
-      </c>
-    </row>
-    <row r="117" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q117" s="56" t="s">
+      <c r="R117" s="48">
+        <f>R115/R116-1</f>
+        <v>-0.33797828075046632</v>
+      </c>
+    </row>
+    <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">
+      <c r="Q118" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="R117" s="57">
-        <f>R115/R116-1</f>
-        <v>-0.30769480048947062</v>
-      </c>
-    </row>
-    <row r="118" spans="17:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="Q118" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="R118" s="58" t="str">
+      <c r="R118" s="49" t="str">
         <f>IF(R115&gt;R116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Q109:R109"/>
     <mergeCell ref="W83:X83"/>
     <mergeCell ref="W84:X84"/>
     <mergeCell ref="W93:X93"/>
     <mergeCell ref="W98:X98"/>
     <mergeCell ref="W104:X104"/>
-    <mergeCell ref="Q109:R109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/WDAY" display="ROIC.AI | WDAY" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
